--- a/ACV_COSTS_data.xlsx
+++ b/ACV_COSTS_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eistore2\igt-lesbat\RaD\108093_OPTIM-EASE\1.stagiaires\AFrancois\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781956C8-5B67-49B4-9500-A2B43836C6FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66500906-686B-42F6-9AD4-982708F45001}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{E0FD70E4-1A98-427D-92C7-FB5C19EFC409}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
   <si>
     <t>Lifetime (years)</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Emission function for a year</t>
   </si>
   <si>
-    <t>InputImpact * V[quantity of input consumed] + TechnologyImpact * V[quantity of power produced by the technology (during the whole lifetime?)] + else ?</t>
-  </si>
-  <si>
     <t>Emission function for more than a year</t>
   </si>
   <si>
@@ -272,6 +269,43 @@
   </si>
   <si>
     <t>(InputCost*V[quantity of input used])  + (Investment1 + Investment2*V[capacity installed]) * (1+Maintenance+Installation+Planification) - Feedin*V[quantity of electricity sold]</t>
+  </si>
+  <si>
+    <r>
+      <t>take into account the leakage of the refrigerant : +0.23</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CO2 eq/kWh th</t>
+    </r>
+  </si>
+  <si>
+    <t>See: costs file</t>
+  </si>
+  <si>
+    <t>See ACV file</t>
+  </si>
+  <si>
+    <t>InputImpact * V[quantity of input consumed] + TechnologyImpact * V[quantity of power produced by the technology</t>
   </si>
 </sst>
 </file>
@@ -440,9 +474,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,31 +491,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,34 +501,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,136 +879,136 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="16">
         <v>8.6774999999999991E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="16">
         <v>0.20369999999999999</v>
       </c>
       <c r="D4">
         <v>0.09</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B6">
         <v>0.70799999999999996</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>2021</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="16">
         <f>2090.83916666667/6000</f>
         <v>0.34847319444444497</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>2020</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D9">
@@ -982,19 +1016,19 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D11">
@@ -1014,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DE05AA-9086-4F54-BF8C-C160EDAAF979}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
@@ -1022,15 +1056,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="5" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1048,33 +1082,33 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3">
@@ -1097,7 +1131,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4">
@@ -1114,10 +1148,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
@@ -1140,7 +1174,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -1163,10 +1197,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
@@ -1186,10 +1220,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E8">
@@ -1201,31 +1235,31 @@
       <c r="G8">
         <v>910.06</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>1.1738999999999999</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C10">
@@ -1248,7 +1282,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C11">
@@ -1263,14 +1297,14 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
@@ -1281,10 +1315,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C13">
@@ -1299,12 +1333,12 @@
       <c r="G13">
         <v>4288.3999999999996</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>75.983000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C14">
@@ -1319,12 +1353,12 @@
       <c r="G14">
         <v>7439.4</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>25.655000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C15">
@@ -1339,12 +1373,12 @@
       <c r="G15">
         <v>10269</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>122.04</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C16">
@@ -1359,12 +1393,12 @@
       <c r="G16">
         <v>9899.4</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>202.02</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C17">
@@ -1382,110 +1416,115 @@
       <c r="H17">
         <v>706.36</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
+      <c r="B24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="11" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="7" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1514,120 +1553,120 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="16">
         <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="16">
         <v>0.10199999999999999</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="17">
         <v>0.30099999999999999</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="18">
         <v>2.7E-2</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1647,18 +1686,18 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="5" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1680,21 +1719,21 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C3">
@@ -1706,10 +1745,10 @@
       <c r="E3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C4">
@@ -1721,22 +1760,22 @@
       <c r="E4">
         <v>0.28299999999999997</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C6">
@@ -1748,10 +1787,10 @@
       <c r="E6">
         <v>0.45400000000000001</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C7">
@@ -1763,191 +1802,198 @@
       <c r="E7">
         <v>0.188</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="24">
-        <v>2910</v>
+      <c r="F9" s="15">
+        <f>2910/8</f>
+        <v>363.75</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C16">
         <v>40</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="15">
         <v>51.2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="B27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1960,5 +2006,6 @@
     <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>